--- a/backend/routes/exportAttendeeData/csvAttendeesRequested/event-65fdd276ce313a0eb206bc09-attendees.xlsx
+++ b/backend/routes/exportAttendeeData/csvAttendeesRequested/event-65fdd276ce313a0eb206bc09-attendees.xlsx
@@ -40,10 +40,10 @@
     <x:t>65616a1011a2035f14571238</x:t>
   </x:si>
   <x:si>
-    <x:t>Joseph</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jonas</x:t>
+    <x:t>Noah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seligson</x:t>
   </x:si>
   <x:si>
     <x:t>noahseligson18@gmail.com</x:t>
